--- a/Streamlit_test/Results/Resultados_prediccion.xlsx
+++ b/Streamlit_test/Results/Resultados_prediccion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,57 +478,29 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>frt38355</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1595.1</v>
+        <v>5752578.84</v>
       </c>
       <c r="C2" t="n">
-        <v>-10.03</v>
+        <v>5.36</v>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-8.74</v>
+        <v>0.72</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.48</v>
+        <v>3.91</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.16</v>
+        <v>3.65</v>
       </c>
       <c r="H2" t="n">
-        <v>16.35</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>frt38868</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>25140.88</v>
-      </c>
-      <c r="C3" t="n">
-        <v>32.07</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>17.72</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="H3" t="n">
-        <v>74.09999999999999</v>
+        <v>1.07</v>
       </c>
     </row>
   </sheetData>
